--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>151.7554452419281</v>
+        <v>146.1820301055908</v>
       </c>
       <c r="C2">
-        <v>1.06950328414752</v>
+        <v>4.438594155366688</v>
       </c>
       <c r="D2">
-        <v>1.267963886260986</v>
+        <v>1.273686408996582</v>
       </c>
       <c r="E2">
-        <v>0.1290294375257481</v>
+        <v>0.1701672761169326</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7845117845117845</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="K2">
-        <v>0.8114478114478114</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="L2">
-        <v>0.793918918918919</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M2">
-        <v>0.8108108108108109</v>
+        <v>0.7679180887372014</v>
       </c>
       <c r="N2">
-        <v>0.7804054054054054</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="O2">
-        <v>0.7962189462189462</v>
+        <v>0.7956165401314109</v>
       </c>
       <c r="P2">
-        <v>0.01294029893245345</v>
+        <v>0.01891468394322598</v>
       </c>
       <c r="Q2">
         <v>16</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>300.1958742618561</v>
+        <v>292.834651851654</v>
       </c>
       <c r="C3">
-        <v>1.395484895373334</v>
+        <v>4.946721782738535</v>
       </c>
       <c r="D3">
-        <v>1.131724786758423</v>
+        <v>1.356863260269165</v>
       </c>
       <c r="E3">
-        <v>0.04370509119017962</v>
+        <v>0.2737104611288887</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,25 +611,25 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7845117845117845</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K3">
-        <v>0.8114478114478114</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L3">
-        <v>0.8040540540540541</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M3">
-        <v>0.8141891891891891</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N3">
-        <v>0.7905405405405406</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O3">
-        <v>0.8009486759486759</v>
+        <v>0.7997213902625897</v>
       </c>
       <c r="P3">
-        <v>0.01160764483485785</v>
+        <v>0.009607017075378196</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>594.7984768867493</v>
+        <v>612.5517252922058</v>
       </c>
       <c r="C4">
-        <v>2.281862015767533</v>
+        <v>18.53301090863979</v>
       </c>
       <c r="D4">
-        <v>1.412971448898315</v>
+        <v>1.319975757598877</v>
       </c>
       <c r="E4">
-        <v>0.2091374347139224</v>
+        <v>0.1536434381002339</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,25 +664,25 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7710437710437711</v>
+        <v>0.7789115646258503</v>
       </c>
       <c r="K4">
-        <v>0.8181818181818182</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L4">
-        <v>0.793918918918919</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="M4">
-        <v>0.8175675675675675</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N4">
-        <v>0.7972972972972973</v>
+        <v>0.8054607508532423</v>
       </c>
       <c r="O4">
-        <v>0.7996018746018747</v>
+        <v>0.7956467228529637</v>
       </c>
       <c r="P4">
-        <v>0.01744220609816323</v>
+        <v>0.00996089503808361</v>
       </c>
       <c r="Q4">
         <v>13</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>154.5099691867828</v>
+        <v>155.4606854915619</v>
       </c>
       <c r="C5">
-        <v>0.723634901437297</v>
+        <v>6.647929441439815</v>
       </c>
       <c r="D5">
-        <v>1.27253851890564</v>
+        <v>1.207962942123413</v>
       </c>
       <c r="E5">
-        <v>0.2016671438290586</v>
+        <v>0.06554712771518803</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,25 +717,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7845117845117845</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="K5">
-        <v>0.8114478114478114</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="L5">
-        <v>0.793918918918919</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M5">
-        <v>0.8108108108108109</v>
+        <v>0.7679180887372014</v>
       </c>
       <c r="N5">
-        <v>0.7804054054054054</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="O5">
-        <v>0.7962189462189462</v>
+        <v>0.7956165401314109</v>
       </c>
       <c r="P5">
-        <v>0.01294029893245345</v>
+        <v>0.01891468394322598</v>
       </c>
       <c r="Q5">
         <v>16</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>301.9836931228638</v>
+        <v>304.3206067085266</v>
       </c>
       <c r="C6">
-        <v>1.694380628293454</v>
+        <v>8.950816390757321</v>
       </c>
       <c r="D6">
-        <v>1.327647590637207</v>
+        <v>1.324663591384888</v>
       </c>
       <c r="E6">
-        <v>0.1881836782528244</v>
+        <v>0.1160146392300443</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,25 +770,25 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.7845117845117845</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K6">
-        <v>0.8114478114478114</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L6">
-        <v>0.8040540540540541</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M6">
-        <v>0.8141891891891891</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N6">
-        <v>0.7905405405405406</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O6">
-        <v>0.8009486759486759</v>
+        <v>0.7997213902625897</v>
       </c>
       <c r="P6">
-        <v>0.01160764483485785</v>
+        <v>0.009607017075378196</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>599.8554165363312</v>
+        <v>602.8604458332062</v>
       </c>
       <c r="C7">
-        <v>2.105123910788818</v>
+        <v>14.4004066523749</v>
       </c>
       <c r="D7">
-        <v>1.18228178024292</v>
+        <v>1.395232725143433</v>
       </c>
       <c r="E7">
-        <v>0.06115309382103513</v>
+        <v>0.1975068956940571</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,25 +823,25 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7710437710437711</v>
+        <v>0.7789115646258503</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L7">
-        <v>0.793918918918919</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="M7">
-        <v>0.8175675675675675</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N7">
-        <v>0.7972972972972973</v>
+        <v>0.8054607508532423</v>
       </c>
       <c r="O7">
-        <v>0.7996018746018747</v>
+        <v>0.7956467228529637</v>
       </c>
       <c r="P7">
-        <v>0.01744220609816323</v>
+        <v>0.00996089503808361</v>
       </c>
       <c r="Q7">
         <v>13</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>153.9377854347229</v>
+        <v>160.3914230823517</v>
       </c>
       <c r="C8">
-        <v>0.5529497144336573</v>
+        <v>3.582659619539005</v>
       </c>
       <c r="D8">
-        <v>1.199823570251465</v>
+        <v>1.322405481338501</v>
       </c>
       <c r="E8">
-        <v>0.1006353811107323</v>
+        <v>0.2019575083497454</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7845117845117845</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="K8">
-        <v>0.8114478114478114</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="L8">
-        <v>0.793918918918919</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M8">
-        <v>0.8108108108108109</v>
+        <v>0.7679180887372014</v>
       </c>
       <c r="N8">
-        <v>0.7804054054054054</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="O8">
-        <v>0.7962189462189462</v>
+        <v>0.7956165401314109</v>
       </c>
       <c r="P8">
-        <v>0.01294029893245345</v>
+        <v>0.01891468394322598</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>302.1813606739044</v>
+        <v>309.9797125816345</v>
       </c>
       <c r="C9">
-        <v>1.86037542152957</v>
+        <v>4.064334343093534</v>
       </c>
       <c r="D9">
-        <v>1.194237041473389</v>
+        <v>1.393955039978027</v>
       </c>
       <c r="E9">
-        <v>0.07145548214671558</v>
+        <v>0.231106426562123</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,25 +929,25 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7845117845117845</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K9">
-        <v>0.8114478114478114</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L9">
-        <v>0.8040540540540541</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M9">
-        <v>0.8141891891891891</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N9">
-        <v>0.7905405405405406</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O9">
-        <v>0.8009486759486759</v>
+        <v>0.7997213902625897</v>
       </c>
       <c r="P9">
-        <v>0.01160764483485785</v>
+        <v>0.009607017075378196</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>599.3504193782807</v>
+        <v>594.0714394569397</v>
       </c>
       <c r="C10">
-        <v>1.157432057399503</v>
+        <v>11.4687209935104</v>
       </c>
       <c r="D10">
-        <v>1.1409104347229</v>
+        <v>1.334116697311401</v>
       </c>
       <c r="E10">
-        <v>0.00798166048698537</v>
+        <v>0.1669887296228529</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,25 +982,25 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7710437710437711</v>
+        <v>0.7789115646258503</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L10">
-        <v>0.793918918918919</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="M10">
-        <v>0.8175675675675675</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N10">
-        <v>0.7972972972972973</v>
+        <v>0.8054607508532423</v>
       </c>
       <c r="O10">
-        <v>0.7996018746018747</v>
+        <v>0.7956467228529637</v>
       </c>
       <c r="P10">
-        <v>0.01744220609816323</v>
+        <v>0.00996089503808361</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>256.5536961078644</v>
+        <v>257.5585613250732</v>
       </c>
       <c r="C11">
-        <v>3.293319990935462</v>
+        <v>8.934984423173338</v>
       </c>
       <c r="D11">
-        <v>1.228934288024902</v>
+        <v>1.264747285842895</v>
       </c>
       <c r="E11">
-        <v>0.1404814478763585</v>
+        <v>0.08733896236628474</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,25 +1035,25 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8249158249158249</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L11">
-        <v>0.8141891891891891</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M11">
-        <v>0.7972972972972973</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N11">
-        <v>0.8209459459459459</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O11">
-        <v>0.8144326144326144</v>
+        <v>0.8004016623714332</v>
       </c>
       <c r="P11">
-        <v>0.009446116829121234</v>
+        <v>0.008928397055231189</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>494.883277463913</v>
+        <v>496.7823820114136</v>
       </c>
       <c r="C12">
-        <v>3.477476214265907</v>
+        <v>12.06321928203325</v>
       </c>
       <c r="D12">
-        <v>1.138929462432861</v>
+        <v>1.237942981719971</v>
       </c>
       <c r="E12">
-        <v>0.01570047387244857</v>
+        <v>0.1157160360218597</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8282828282828283</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K12">
-        <v>0.8316498316498316</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L12">
-        <v>0.8344594594594594</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="M12">
-        <v>0.8141891891891891</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="N12">
-        <v>0.8108108108108109</v>
+        <v>0.7986348122866894</v>
       </c>
       <c r="O12">
-        <v>0.8238784238784239</v>
+        <v>0.8024494439413991</v>
       </c>
       <c r="P12">
-        <v>0.009554011210189096</v>
+        <v>0.01080440155935592</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>960.2291805267334</v>
+        <v>971.4209398269653</v>
       </c>
       <c r="C13">
-        <v>8.612829371568081</v>
+        <v>23.67295849998931</v>
       </c>
       <c r="D13">
-        <v>1.287890338897705</v>
+        <v>1.292546939849853</v>
       </c>
       <c r="E13">
-        <v>0.188918584751241</v>
+        <v>0.2233211014550626</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,25 +1141,25 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K13">
-        <v>0.8215488215488216</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L13">
-        <v>0.8412162162162162</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M13">
-        <v>0.8243243243243243</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N13">
-        <v>0.8108108108108109</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="O13">
-        <v>0.8245631995631996</v>
+        <v>0.8092614520210815</v>
       </c>
       <c r="P13">
-        <v>0.00975416875879339</v>
+        <v>0.01628380234876728</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>252.5391799926758</v>
+        <v>248.5174519062042</v>
       </c>
       <c r="C14">
-        <v>1.498424065587306</v>
+        <v>7.825580402660301</v>
       </c>
       <c r="D14">
-        <v>1.199706315994263</v>
+        <v>1.257522201538086</v>
       </c>
       <c r="E14">
-        <v>0.1513567963217099</v>
+        <v>0.1484199930719912</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,25 +1194,25 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8249158249158249</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L14">
-        <v>0.8141891891891891</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M14">
-        <v>0.7972972972972973</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N14">
-        <v>0.8209459459459459</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O14">
-        <v>0.8144326144326144</v>
+        <v>0.8004016623714332</v>
       </c>
       <c r="P14">
-        <v>0.009446116829121234</v>
+        <v>0.008928397055231189</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>494.112361240387</v>
+        <v>499.5657549381256</v>
       </c>
       <c r="C15">
-        <v>4.037914080235016</v>
+        <v>8.206629587267598</v>
       </c>
       <c r="D15">
-        <v>1.232699346542358</v>
+        <v>1.183729076385498</v>
       </c>
       <c r="E15">
-        <v>0.1804880629020351</v>
+        <v>0.03211375340521504</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8282828282828283</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K15">
-        <v>0.8316498316498316</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L15">
-        <v>0.8344594594594594</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="M15">
-        <v>0.8141891891891891</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="N15">
-        <v>0.8108108108108109</v>
+        <v>0.7986348122866894</v>
       </c>
       <c r="O15">
-        <v>0.8238784238784239</v>
+        <v>0.8024494439413991</v>
       </c>
       <c r="P15">
-        <v>0.009554011210189096</v>
+        <v>0.01080440155935592</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>956.3530193805694</v>
+        <v>970.338584947586</v>
       </c>
       <c r="C16">
-        <v>3.270809755907758</v>
+        <v>23.374822268372</v>
       </c>
       <c r="D16">
-        <v>1.226289033889771</v>
+        <v>1.412588596343994</v>
       </c>
       <c r="E16">
-        <v>0.07709148026029916</v>
+        <v>0.1535950600201352</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,25 +1300,25 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8249158249158249</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K16">
-        <v>0.8215488215488216</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L16">
-        <v>0.8412162162162162</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M16">
-        <v>0.8243243243243243</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N16">
-        <v>0.8108108108108109</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="O16">
-        <v>0.8245631995631996</v>
+        <v>0.8092614520210815</v>
       </c>
       <c r="P16">
-        <v>0.00975416875879339</v>
+        <v>0.01628380234876728</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>251.4240734577179</v>
+        <v>251.7670508384705</v>
       </c>
       <c r="C17">
-        <v>0.8508449571039131</v>
+        <v>8.659660011059623</v>
       </c>
       <c r="D17">
-        <v>1.201510190963745</v>
+        <v>1.171444082260132</v>
       </c>
       <c r="E17">
-        <v>0.1183926237109687</v>
+        <v>0.02227623187617293</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,25 +1353,25 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8249158249158249</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="L17">
-        <v>0.8141891891891891</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="M17">
-        <v>0.7972972972972973</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="N17">
-        <v>0.8209459459459459</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="O17">
-        <v>0.8144326144326144</v>
+        <v>0.8004016623714332</v>
       </c>
       <c r="P17">
-        <v>0.009446116829121234</v>
+        <v>0.008928397055231189</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>487.406107711792</v>
+        <v>491.3771475315094</v>
       </c>
       <c r="C18">
-        <v>8.109619802268105</v>
+        <v>17.50409555589058</v>
       </c>
       <c r="D18">
-        <v>1.091432809829712</v>
+        <v>1.21396279335022</v>
       </c>
       <c r="E18">
-        <v>0.07029284875865936</v>
+        <v>0.2449585325467441</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8282828282828283</v>
+        <v>0.7925170068027211</v>
       </c>
       <c r="K18">
-        <v>0.8316498316498316</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="L18">
-        <v>0.8344594594594594</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="M18">
-        <v>0.8141891891891891</v>
+        <v>0.8020477815699659</v>
       </c>
       <c r="N18">
-        <v>0.8108108108108109</v>
+        <v>0.7986348122866894</v>
       </c>
       <c r="O18">
-        <v>0.8238784238784239</v>
+        <v>0.8024494439413991</v>
       </c>
       <c r="P18">
-        <v>0.009554011210189096</v>
+        <v>0.01080440155935592</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>778.1056718349457</v>
+        <v>772.3309009552001</v>
       </c>
       <c r="C19">
-        <v>32.3135937736479</v>
+        <v>29.47376515923673</v>
       </c>
       <c r="D19">
-        <v>0.7789945602416992</v>
+        <v>0.8316031932830811</v>
       </c>
       <c r="E19">
-        <v>0.1335864198226529</v>
+        <v>0.1292448613327437</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8249158249158249</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="K19">
-        <v>0.8215488215488216</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L19">
-        <v>0.8412162162162162</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M19">
-        <v>0.8243243243243243</v>
+        <v>0.7952218430034129</v>
       </c>
       <c r="N19">
-        <v>0.8108108108108109</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="O19">
-        <v>0.8245631995631996</v>
+        <v>0.8092614520210815</v>
       </c>
       <c r="P19">
-        <v>0.00975416875879339</v>
+        <v>0.01628380234876728</v>
       </c>
       <c r="Q19">
         <v>1</v>
